--- a/(DEVOCP-ncbc-mid)_OCP_AP入住申請表 DEV-bareMetal-MID-v3.0-20251016.xlsx
+++ b/(DEVOCP-ncbc-mid)_OCP_AP入住申請表 DEV-bareMetal-MID-v3.0-20251016.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZZ01J0858\Box\SCSB NCBS-IBM Team\91.SCSB SUB\02. MID\S2.Design&amp;Development\03_重要文件\防火牆與入住申請表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2105C76D-D321-4B7D-AE4D-E75BE49302FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF48C56-CFDD-4D89-B846-8387D88027E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="828" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" tabRatio="828" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申請 Check List" sheetId="22" r:id="rId1"/>
@@ -3261,31 +3261,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6441,53 +6441,53 @@
       <c r="O5" s="151"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="145" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="145" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="152" t="s">
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="145" t="s">
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="O6" s="146"/>
+      <c r="O6" s="153"/>
     </row>
     <row r="7" spans="1:15" ht="32.4">
-      <c r="A7" s="147"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="147" t="s">
+      <c r="A7" s="145"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147" t="s">
+      <c r="D7" s="145"/>
+      <c r="E7" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147" t="s">
+      <c r="F7" s="145"/>
+      <c r="G7" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147" t="s">
+      <c r="H7" s="145"/>
+      <c r="I7" s="145" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="147"/>
+      <c r="J7" s="145"/>
       <c r="K7" s="45" t="s">
         <v>6</v>
       </c>
@@ -7368,21 +7368,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:M5"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="K6:M6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:M5"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
@@ -8286,8 +8286,8 @@
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
@@ -8454,13 +8454,13 @@
         <v>25</v>
       </c>
       <c r="E9" s="66" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>424</v>
       </c>
       <c r="G9" s="38">
-        <v>45915</v>
+        <v>45951</v>
       </c>
       <c r="H9" s="84"/>
       <c r="I9" s="88"/>
@@ -8982,7 +8982,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F10" sqref="F10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="16.2"/>
@@ -9189,13 +9189,13 @@
         <v>25</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="H10" s="38">
-        <v>45915</v>
+        <v>45951</v>
       </c>
       <c r="I10" s="84"/>
       <c r="J10" s="88"/>
@@ -10587,7 +10587,7 @@
   </sheetPr>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -10676,16 +10676,16 @@
       <c r="K5" s="195"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
       <c r="G6" s="196" t="s">
         <v>6</v>
       </c>
@@ -10703,7 +10703,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="147"/>
+      <c r="A7" s="145"/>
       <c r="B7" s="62" t="s">
         <v>185</v>
       </c>
